--- a/www/IndicatorsPerCountry/Mauritania_GDPperCapita_TerritorialRef_1979_2012_CCode_478.xlsx
+++ b/www/IndicatorsPerCountry/Mauritania_GDPperCapita_TerritorialRef_1979_2012_CCode_478.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mauritania_GDPperCapita_TerritorialRef_1979_2012_CCode_478.xlsx
+++ b/www/IndicatorsPerCountry/Mauritania_GDPperCapita_TerritorialRef_1979_2012_CCode_478.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,175 +36,193 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>928</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
-    <t>1059</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>1047</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
-    <t>1046</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>989</t>
-  </si>
-  <si>
-    <t>991</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>984</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>921</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>957</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>948.062783055</t>
-  </si>
-  <si>
-    <t>948.830209331</t>
-  </si>
-  <si>
-    <t>932.184616725</t>
-  </si>
-  <si>
-    <t>947.988545315</t>
-  </si>
-  <si>
-    <t>962.487171792</t>
-  </si>
-  <si>
-    <t>983.537603086</t>
-  </si>
-  <si>
-    <t>1021.27906946</t>
-  </si>
-  <si>
-    <t>1033.59374021</t>
-  </si>
-  <si>
-    <t>1045.44748059</t>
-  </si>
-  <si>
-    <t>1059.94930463</t>
-  </si>
-  <si>
-    <t>1084.82378311</t>
-  </si>
-  <si>
-    <t>1103.75318956</t>
-  </si>
-  <si>
-    <t>1120.12675519</t>
-  </si>
-  <si>
-    <t>1153.28673754</t>
-  </si>
-  <si>
-    <t>1183.18440263</t>
-  </si>
-  <si>
-    <t>1216.37654395</t>
-  </si>
-  <si>
-    <t>1321.7141653</t>
-  </si>
-  <si>
-    <t>1302.7209561</t>
-  </si>
-  <si>
-    <t>1299.21016271</t>
+    <t>679</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1358</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>1699</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1682</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1547.54347028269</t>
+  </si>
+  <si>
+    <t>1559.90485866062</t>
+  </si>
+  <si>
+    <t>1668.7220858563</t>
+  </si>
+  <si>
+    <t>1732.99704097869</t>
+  </si>
+  <si>
+    <t>1686.19772625386</t>
+  </si>
+  <si>
+    <t>1873.05086807197</t>
+  </si>
+  <si>
+    <t>1799.82518125443</t>
+  </si>
+  <si>
+    <t>1841.20748481956</t>
+  </si>
+  <si>
+    <t>1954.22943072567</t>
+  </si>
+  <si>
+    <t>1934.74203577032</t>
+  </si>
+  <si>
+    <t>1964.44562689687</t>
+  </si>
+  <si>
+    <t>1967.44830873416</t>
+  </si>
+  <si>
+    <t>2076.2331265156</t>
+  </si>
+  <si>
+    <t>2185.95025896162</t>
+  </si>
+  <si>
+    <t>2371.00667703416</t>
+  </si>
+  <si>
+    <t>2807.19893810202</t>
+  </si>
+  <si>
+    <t>2875.03472380011</t>
+  </si>
+  <si>
+    <t>2895.66499160281</t>
+  </si>
+  <si>
+    <t>2855.5746047563</t>
+  </si>
+  <si>
+    <t>2982.74880048641</t>
+  </si>
+  <si>
+    <t>3104</t>
+  </si>
+  <si>
+    <t>3213</t>
+  </si>
+  <si>
+    <t>3319</t>
+  </si>
+  <si>
+    <t>3459</t>
+  </si>
+  <si>
+    <t>3424</t>
+  </si>
+  <si>
+    <t>3407</t>
   </si>
   <si>
     <t>Description</t>
@@ -798,7 +816,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -815,7 +833,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -832,7 +850,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -849,7 +867,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +884,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -883,7 +901,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
@@ -900,7 +918,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +935,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -934,7 +952,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
@@ -968,7 +986,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -985,7 +1003,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1002,7 +1020,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -1019,7 +1037,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -1036,7 +1054,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -1053,7 +1071,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -1070,7 +1088,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -1087,7 +1105,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1122,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1139,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1156,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
@@ -1155,7 +1173,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
@@ -1172,7 +1190,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -1189,7 +1207,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54">
@@ -1206,7 +1224,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
@@ -1223,7 +1241,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56">
@@ -1240,7 +1258,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57">
@@ -1257,7 +1275,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
@@ -1274,7 +1292,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59">
@@ -1291,7 +1309,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
@@ -1308,7 +1326,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1326,50 +1480,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
